--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/57_Mardin_2022.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/57_Mardin_2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E810F6CA-3295-4AA6-BACA-A66402DC6B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2CBFB8F-29B7-4D11-AD08-BBF79568E531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8544" yWindow="6144" windowWidth="6528" windowHeight="5280" tabRatio="677" xr2:uid="{6091ED38-7886-451A-A9DF-FE59F54331A5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="677" xr2:uid="{4DF9D2D8-F9EA-466A-B115-268A600C2FB9}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK " sheetId="113" r:id="rId1"/>
@@ -975,14 +975,14 @@
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{EF06F8BD-1317-4844-A3DD-053658121714}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{B30A270B-5350-46F7-9114-69BC4C681CD9}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{360ED3F5-313F-4A35-899D-7049CAD5E5A3}"/>
-    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{527276A5-EEF2-4489-971E-62754CB1C318}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{2181A9A8-6A32-49EF-8358-73660F355390}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{D20ACFEE-F34F-4600-A8F7-D390F774723A}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{EC20EDAC-9D07-4844-A393-F3BFEFAFF020}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{4A036CAE-838D-4A12-A4B4-E366DA6BD54B}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{0CFDC454-C834-40FC-A71C-799E1353B374}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{DBB798AE-DE2E-44AD-80B4-2DFB3748A6A9}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{F5380F80-730E-4B46-87D5-178BD5516C0E}"/>
+    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{166812E7-7E84-4547-A393-58855F2AF5C0}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{94818A0B-E287-4A89-8264-16B6C61AE1F3}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{34D79401-D6F0-49C7-B328-6DBC2FEB50CF}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{A6786EFF-9540-4763-B7FA-647A8523A7B0}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{84BF2DA6-CDC7-47FA-AD1F-BA70F8FE45CA}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1352,7 +1352,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB0E22FC-8889-416B-A089-D60DB1F9EB20}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEE4DAB1-EEEF-4F10-B024-BAC16BC15B01}">
   <dimension ref="B2:F106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2658,17 +2658,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F58F3D38-8D38-4904-9023-9006C1075A5F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6F33B832-A013-4ED6-92B3-CD803193225B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D2887B3A-5F21-400A-8CE4-67DA622BFF30}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{AD634AC3-D7E8-4644-AC98-1843B4E2AA7E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{97114783-47A8-4037-B383-BD6EE918F758}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{90509096-2A75-44E0-B6B3-E799E0B48C2B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7BE5B29D-F8F9-4682-ABC2-B89F3BB80CC1}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D670DC96-1B24-4100-A2F8-98C8DEB944CC}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{E9C0AE24-F5FF-4EBB-8C27-B81194DC7E18}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{2B33CEE3-61A0-4E1E-9DF2-25D6B38A0A51}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EED9DB23-8742-4FC9-97BA-4AE14FBF0A62}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C0B32613-B7EB-4ED7-8112-240CC1C7AE5D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{95221137-38FB-4C64-9140-3BBDB51EFCF9}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{AC07003D-94E6-4EF3-9720-F0FCE7A9F8C0}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8C7FAD5B-E378-495B-8C84-C1331268E2C5}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A869BDA3-03FA-4B3F-B1D4-4E71CE0E2B3B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8F3D8CAD-84B6-44D2-A046-465BE2DBC19F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0A8C2C3D-8BFB-4EA4-B02E-6526445DC264}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AF5A9463-B52C-4917-9A5E-E7976A03D722}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{A5BFD62C-4E5F-4064-A5EA-092683B34A5E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{1F56E3A3-1E46-47EC-A17E-9496B392703B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1F3E880C-FC00-4541-8FC3-C2013605BEB7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2681,7 +2681,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E02357F-7904-4A5A-9155-3C25DF32D4B8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE36D7D2-92C7-4840-8569-088346A65036}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3968,17 +3968,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{597E45F1-61FA-4911-A597-E44A07D169D5}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6CA72FEF-D54C-4516-AAAA-F8B26C15DA80}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{965AA790-385C-4878-AA01-F39515392491}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B877D586-D707-422B-AAB7-6407DEF4FF5E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3C55A62D-F7CF-42E1-9D9D-0D62355346D3}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9A05B62A-2131-4D81-B782-7E5AE260CF43}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{30AA6EEC-98E1-4C01-89B4-0D21B068FFC4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{735E3EF3-A7CD-4816-A708-ED7AA0B8DEE1}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{B17E1695-0BBB-42B2-B4A4-338574C55C08}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{64AE9F0D-399F-4AFE-8AE7-69825F703CE2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{792ADAAF-6F3A-42DC-9BDE-A3559662906E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E2FAB891-ABD4-4DFD-A183-025A6D39BB88}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D32C55CF-E359-450F-9DC3-5DEB72164687}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D1B648B6-273B-43A2-9101-8411B8FA0470}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9363A5AE-061E-44D5-BDBE-4577B6EACCCF}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0EABEF0F-790E-426E-BBB9-4EC43E5BEA26}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CE6A403D-B3B8-4DC0-BDA9-007FF8582770}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{38EDE792-A464-4790-807C-11412F5A2B36}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7D029B0B-615F-4280-AD3A-97397E631E6C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{D0F3E885-564A-4822-879A-CE2908B46DE5}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{27297F0F-7275-4C88-BC28-14882F854B99}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F5CE408A-7205-493B-86CB-D45C515EC2B4}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3991,7 +3991,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEB3F3BD-D56E-4B57-AD8C-2CBCA8C1FF32}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6F8E7F9-C68D-42F2-A2F9-630ECA571CD9}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5278,17 +5278,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E57F92C9-9104-4307-BD41-4B15B30FA604}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4D0A77E3-B33D-4D67-9CF2-AF6A6304830A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{7D720C57-4B8A-4385-BC33-6FD2F59D46DD}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5A5FCC42-7820-45E6-969C-B01053E58443}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{131871FE-0618-4FC1-8275-2A9D8F989D93}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{80FE8496-9095-464C-B264-431F982BB599}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B0A6D349-D2B3-433D-BE97-C7426771A3BD}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B080117E-B292-4BEC-814E-4C81BD07A483}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{544BD6EA-5D83-470F-93FD-9D8A7A443CF9}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{B74CE837-0322-40D6-95E9-18383B9D9B77}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F528A25B-A6DA-48CC-A1DF-F6C1139955C4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{605DAC73-DC5E-42EC-B7BD-6CD5E541B32D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A33D55FF-77CD-46C5-8CAC-84B0485C193B}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{84C837A2-56F6-4528-B451-03F4EBD69A7D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BD1064B0-8990-4DCC-91F9-77DBF9AD7B3D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FF98087B-3197-4615-A8E7-EB2F9F7CB45B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CBF8FBFC-8F6E-41DE-BAF1-183531F39125}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{31A400C1-0039-4D2D-9164-0CADA09B85F4}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{47A02BAC-2F33-44F3-AE10-B147E2C04A68}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{FE80AC84-D95B-4C78-AC9A-3301F64E79CE}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{4962BB3D-9A5D-4A26-83C0-797B6DF1EB14}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C6970033-63CB-4258-94B4-099564C3ADB9}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5301,7 +5301,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B467BAB-1441-4FA6-BA1D-20B347451B82}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{297CB574-D9CC-49CF-B808-C940BF5A5C6B}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6574,17 +6574,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4740B84F-299A-4774-A301-F9F3308B1301}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5566D9CC-3B04-48A9-B9EA-CBEF712D683A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4A249313-5A5C-4886-BB44-0942C26E4ABC}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C44029F3-0FB3-424B-A4F5-35DB7509480A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7698CD22-39AA-47FA-9EAC-BC0B81F6EAF8}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C2D232D2-44D3-4FBE-A16B-067D397C61FF}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{50054A0D-33EB-42A4-A221-1E40C2018ED3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2E1E2E4D-98D7-4BF9-86AE-A856C0936A15}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{6E8DC3AA-1B61-47D3-9223-4E71415D0BC9}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{87566758-A2FE-4583-B576-69FECAF1BA4B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{289EADFC-8D51-4AA4-AD66-A8A35682F0DA}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{567EB54E-B78C-4DEC-9757-01D489103884}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B465F019-D85F-4529-ABC4-2550B95D8B08}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F69D28A8-77EF-4E38-BCCA-B9BFB953BDEC}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{53E69055-E780-4668-831B-41B8150002D1}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D6F9D9E3-9D57-47F8-B6C0-035B994E6925}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{19E68628-B285-4209-8B46-C5A90CF9D310}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6DE68955-CD87-4DCB-8617-FB0D46CE68F1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C98B2A26-5D37-4FA4-8264-F9A0B8C41461}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{367566CD-3163-4AA1-81A6-E534116E0FB7}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{46484D01-AAC0-45A8-8FB7-644FAA1E9F67}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4C236798-1F6A-4C5B-AB9C-C9B3521D26C1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6597,7 +6597,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A1C54A0-4C1A-411B-B6C8-1C2E9118E2BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1B61257-FD0B-4CC1-B29C-995118CA958E}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7898,17 +7898,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5469EB07-94B0-4A20-9FD8-CEC536EC4136}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BDB44E88-5A35-4BED-953D-D1CEBAAC2B3D}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{80944515-9946-4BA8-8984-79BA263AC7AB}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0D3F7802-455D-4546-B5DE-176FB75FDA88}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FA3B4F1C-00C8-4697-88D2-591211BCB2AB}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B531ED0F-E114-40AD-AAB4-2332307336E7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DE584D5D-4090-461E-9F51-F2D23D7DD385}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{896AB8EB-0284-48B9-9E9E-E474EAFB19C7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{2936C8B2-F75C-4447-A60B-1D4D0AE21080}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{6E930C7C-3460-40A0-B147-BE84C445228C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BFA6910A-C61D-4E2D-B4BF-F4557F0D8101}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{68F65AD0-8F23-4283-9B8B-FB68A6E6F027}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{53960606-F20E-4F9B-A7AE-10A20769EF67}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0253C70B-3B88-49D6-AE3D-615682BE5151}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{DC38BE4E-40BC-4248-91F1-A3B47615A446}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DAEC5863-BAEC-40E0-9110-553426EC2324}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{20449DCF-970F-4A9A-95F5-E898ECC2FC8A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{93646C4F-6B73-446E-ABEA-6A43CC41E936}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{39816C9C-AB37-424C-898E-CA907CFD3CF1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{A6D891D4-B97C-4E77-9583-F16DE0AA3C99}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{7B12021D-291D-4609-9352-46B870F92C24}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B41E23E9-75C9-4537-839C-9980B9CC6F52}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7921,7 +7921,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B057E045-BCBF-4584-9471-C998C3DB6D85}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{609F5B38-A4E7-4082-B46F-BD94D28AEFC7}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9222,17 +9222,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5EB9B7E9-5BA8-4E06-A52A-2C3A8DCB45B6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FE2B5316-CD52-42FB-88D2-41D55B3D72E5}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9E720494-027D-40F3-924B-7E812E435A62}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E368A590-146C-4DDB-9B20-AB0362ED6EC0}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{61CC983B-0EA8-44B1-B905-B01E8A24E3F4}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0407C6E6-6049-41B0-8BB4-D89DEC64DC6D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9C14944E-B274-4BBE-AB7F-6B683757F29F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7986F2EC-4EC1-42BE-BC4F-54D6F544CEF8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{B0B45D06-196E-4A8C-9D44-F2478FFAD93B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{FD13A340-8664-4D8D-B8FA-A064C33E918A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D63AF82A-DA10-4D7B-B6D7-C622E1EE423A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6FBD1DEF-65EA-4906-B91B-F813D849D9A0}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{89048C8D-159A-4099-B668-8B6C93FEC737}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A12D892E-DCB2-4D87-8D46-4B10624233CB}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F3CD3C56-39B1-4CAC-844B-D6A4F103E405}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{21EB407B-D7A6-4F35-817D-4535ECB1C8AB}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{49649632-A394-404B-A349-B9EF584C8F27}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9A45F807-BFFA-428A-AB20-611C263B1D00}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3668078D-3601-411B-9C17-3EAF2A7F444B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{64156463-3087-461B-B165-C436CBCEA251}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{8FCD31BF-B554-405D-B9AF-DA88CDEAD77B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6AB4142D-0638-40B5-A051-908CC2B5F748}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9245,7 +9245,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71D3178E-A5A8-4403-9B78-64F7F2CB5510}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E287B74-9F1E-4EC2-B539-DAA555D2DF22}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10546,17 +10546,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5A07427D-D467-4C99-B64A-B9CAFE415F71}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CF44B6A9-7A5B-4ABD-9A92-1273CE4788C6}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1BB81D5E-561D-4329-A4A7-C1C5D2E086D7}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F918E00B-302B-45C8-844C-8F81BBCE2C7D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3A506953-271D-40F6-9B67-E0390F164152}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9345682E-A650-4426-B7A7-D05FBF83737F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DB0E6213-CDA1-45E3-A8F6-8AD58150581C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C211848F-F5F3-4BE8-B704-BB3981A406CD}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{7B3283C3-B044-46AD-BDF4-689C8A19B2C2}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{84667420-D0E3-40B8-AB2B-216228EDB35F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DC269762-48B1-4BF0-87EC-8DF01E4C3EF5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D13E26FB-23FA-4348-8917-6FAF6C6A1D45}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C828BE19-1D85-4B0B-9AAE-E9D99FD5F9BE}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{DAC3FD37-63FC-4FCC-8D53-F223ED262C2F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6B7503F3-0465-4326-B28F-7164CA54D170}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B1079198-87D0-4D1F-B93E-A2D0F0370A39}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{37DFA76B-6E5E-4F5C-B357-6860168FD195}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FB3E6F87-6337-4EEF-874A-12C5CCC242F2}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3BDB7934-1870-4F94-A06C-B7B8DB4747F2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{23A1A6A2-9988-4AAB-8E83-B11163503A8B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{0513D745-CF9D-4FED-AAB0-18CD24324DE6}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2E77D3CD-D88A-4829-B365-CC9608325B5C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10569,7 +10569,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C65E6FF-3EDD-4B46-9DAA-58502647A97C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94BE2A79-D53C-4259-BAE3-0EBEBEE3EAC9}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11870,17 +11870,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{251ED518-AB06-4B2F-BEF3-1EE4817C0DA7}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B45747B2-BF65-4593-85A3-B72CAF024BEC}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{31D92710-E3DD-4C50-A657-192B71CF6BC8}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7C83F797-50BB-44A4-83B3-4A9D591C23C2}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3ACDC423-83B2-4506-93DF-D53C52F3BCD1}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CA6D31A9-9952-4ABC-9E30-EE421A10668D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1B9E0A59-8F19-4A8D-B5DB-99831AD527B8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B657229C-E52A-4B8B-866F-3F9CA48E9F61}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{DC622302-FD64-45EA-AC99-D7124B67C2BA}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{900AC251-974F-4C32-9C7C-9956873599BD}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EF06BEDC-BCC7-40D0-B93B-43E8F8CAB3B9}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4D0DFC1E-7302-439C-8CEE-A50258FE181D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C1810119-2E9A-42E8-9995-C31086C13A97}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B0D01F9C-6F45-4A4E-A464-7B2D6AB2F9E5}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CB5DCA75-3C0B-41CF-84E8-ED6864BDFC3D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{197D4AE8-A374-4130-96C2-FE44E498D5BC}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{22EB0212-21C6-4BD6-87EE-0468AFCABF4D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{73DF1762-72CD-4317-AB14-FA054022265F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{32A93CD8-50DD-4B8D-8B00-8CE0B0148CA5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{240DA588-B2C8-4997-B12C-A1E58F423148}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{4B2E3085-6082-47E9-A5C2-B208C2CCAC0D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E8050787-F943-4177-9B32-D0F220608B36}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11893,7 +11893,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB55C670-2796-475C-9EC7-AD2E01CBF67B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D26632B0-9475-45A0-82A3-75B1CF7B9514}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13194,17 +13194,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{97B9DD8F-1956-4686-BE40-ECDFFF9DC0FE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1E42F3ED-902F-44AC-B7A5-000028134E56}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0CCD2270-AEB9-4211-A16D-F91B496FFD03}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{EA7C78ED-F20B-45F6-A1A7-7DF02DFDB220}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{18B79930-6B41-48CB-B418-57ADF723BE02}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CFB368C6-A2E2-44FE-829F-757EE4ACF086}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B1E4120A-FF71-4BC4-A431-BB952347AFDA}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{17041520-1F71-4543-B8CD-767E49829EB0}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{D5C38C6F-69D2-4077-986C-E9BB53AB4E6C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{B47C244F-3DE4-495A-94A6-1A310841606E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AD720048-23CE-45D1-BDA9-2DAF2B561524}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4FFC312D-E191-4361-880B-7BEF877F7CCF}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F7A98903-8F52-443F-9FB5-36C0AC6888F0}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B9091DE2-898E-46C2-BC3C-DD0B953A5260}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5CD481B6-90A5-449E-B30A-3AE6B26FD075}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{43489B0C-6BF2-4739-AEAA-F7FB8B7C87EB}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E8DDE497-E5C7-497A-9FAF-9C3249FBF341}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{01369E1D-EB39-485B-8D1A-D4EBD0EB49CA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0E2EB3E5-F3F7-49C1-885E-0A0763268DE5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{201DE0EF-70CF-4FE5-98E3-9A4DA477EF86}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{4A8B4D01-72DA-4CD1-9A9D-73CF7DEFF3FE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9F357465-32E7-4B27-8669-21F08BC5B85C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13217,7 +13217,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EEAAF24-CD8E-4FD4-AFFC-33319D706160}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB213265-2C53-482A-B855-8350D16FCB20}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14506,17 +14506,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CB07287D-FCB2-4ABB-A0CF-E97361938AE3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8C1005DD-1C60-4D07-B9F8-B4C07ACDCCCF}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B845C0EB-8025-4709-8686-B6414E37C497}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{95E57EA7-5A11-4BD6-BB51-65E0CA42DCBC}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DF49F3CE-A2CC-4959-B492-5189BE159949}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{14D86FF0-A4FA-4A7B-AA9A-86B4D72101D1}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2A1D715E-F192-472E-B16E-B3707E11D84C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9C840024-0000-4CC8-B8B3-7F72B9B8BA33}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{F044EFC1-4D67-4716-A8C4-BA51279B069E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{F85EE891-31C6-4643-A1DE-1090790C7334}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CD22F634-1B96-4A5A-B7A8-FFEE811FCA5B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{71DCCCC7-2C94-4D16-BF7D-0520E179612C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F82361E1-CB91-4C6E-B69C-3E661B64C5F3}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5137ED69-B12C-497C-AC63-0C2BF6E5DACB}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3332D31C-F056-40CB-A09B-1EC7CD4AAE69}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D14A4F2B-B7EE-4227-A9A0-F337B1C9D920}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5B3BDA75-58D3-48D4-B2B3-DF5A32DF202B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DBF4D476-BF35-43E3-BBFF-B26CEBB3A05D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5BECCD3F-B0F7-4334-BBF3-FD02FC7F36DD}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{39EE7D1F-E227-4520-B7B5-2111BC5CBBE9}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{A8C07575-80A2-4D5F-B933-4BDB821F86DE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7A313C42-6013-4B55-8B26-2713788DA7DF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14529,7 +14529,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46A8D0E8-022B-495D-B0A3-FA63BDA3EE7F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E69616E1-4B27-4878-BCE2-B5314F25757E}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15818,17 +15818,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5F6FDC67-5CFA-4E03-91B9-48C5BE9929A9}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{06CB2B57-0920-4840-8AD4-7023166D1C3B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{210C1AAE-E2F8-4A43-9BE0-C3107D6698B9}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7F5853EB-E287-4676-BEC6-1A8457B3F223}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{84D52127-69A9-4641-A199-C102AA74D6A1}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C26C3744-020C-4A2D-A62D-8436178EDC9D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2E3877FD-D80E-4ADB-B3B9-FED7814604FF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{53F7C422-E8C6-4CB5-BBE2-7F23D5087213}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{685349A5-DF56-42FB-AC44-FD5216138048}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{B394F153-71E5-492B-963A-79201457B03E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{739C325E-5505-4A68-9518-948028D4C52F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{24D2B086-7F72-4034-B5B8-1B1B9027CBB3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{535F8FF0-DA7E-4CBB-B4B9-DFF641D13FE9}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1BE1AF32-D87B-482E-BF82-E53FB1EEB754}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{64DDB32B-B470-42E4-8C9B-09E62DD196AE}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EF3542FC-A420-44B2-B329-A050D1B5BEBE}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8B5C9EAF-DDAB-403B-AB72-90092AB6D297}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5731379B-B8B5-4513-AD80-2D42BBDE22DB}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AF527EDD-7BC3-4052-826B-E08CA08E42B3}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{A07337D0-D6C0-4419-96DF-E88D90D5C16E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{A041FDED-617A-443C-8C69-99782AF24074}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D08EA32B-DB85-4455-BA40-6C75E35D7EB1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15841,7 +15841,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{894BB374-BBBB-4D9F-999C-3817AC014ECF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{567870AD-CCA4-443C-AF67-7EC2A8EFD370}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -17128,17 +17128,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{44D01BC0-A7B6-43BB-AED9-8B5F48ACC2FE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{541B6506-024C-46CA-8260-149992BF6821}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{7A33A8DC-ABBD-457D-90B0-01A02DF369A7}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B86972D8-E3D3-416B-8108-A8D02B0E8ECA}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F1330AFF-0BA0-424F-8802-B42B67815C56}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8C9CA112-A7D8-497A-B69B-8E6FF983EA7D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D07A430F-9EA0-4526-B50B-0E404F0F38F2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B3BFC88D-4862-47F4-9D2E-B198F43DE884}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{30FAB73D-68E8-4C54-ACD7-EA8A2FEA995C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{D088BA15-0D9A-4930-AC90-61663475C633}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0A87C7D3-601B-4276-BA9A-01F000DE56FE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{87C861CC-727B-4116-B01C-BEC1BF40A81B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3F0D7FD8-CA64-4C77-9B03-839CCF4A7DDF}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{63A610C7-16AC-44A2-BCB2-B8D90C0E1454}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D26D911D-3366-4D5C-82C8-A82A36BC0220}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3947490C-7D40-4B39-B786-D00F00A83B75}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{98993407-6D76-4821-BBD4-42466EBA9A8E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0BC186D1-FD87-4BD6-AD65-8FF655FC5DCD}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{48BC795C-4623-4CFA-9CE6-D6B481DC829D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{EB511105-7DEA-4D21-B55B-F06296370D57}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{220AF33A-1F16-4E3D-81E7-9096400D5911}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F85BFFEE-D2E7-471F-91A9-067A974A949B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
